--- a/score.xlsx
+++ b/score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50e377fd8ab1e3bd/デスクトップ/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomoki Yamada\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{495B37CB-FA29-4F1D-BA05-0CE3993F4606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6312333-39AC-4A4C-9D34-B5EE7AE37485}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1AC47-3433-4705-A655-2DF2339FECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85EDF0FD-9180-4247-AC3A-936D1182F98C}"/>
   </bookViews>
@@ -36,119 +36,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>国語</t>
-    <rPh sb="0" eb="2">
-      <t>コクゴ</t>
-    </rPh>
+    <t>No.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>算数</t>
-    <rPh sb="0" eb="2">
-      <t>サンスウ</t>
-    </rPh>
+    <t>No.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>理科</t>
-    <rPh sb="0" eb="2">
-      <t>リカ</t>
-    </rPh>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>No.4</t>
+  </si>
+  <si>
+    <t>No.5</t>
+  </si>
+  <si>
+    <t>No.6</t>
+  </si>
+  <si>
+    <t>No.7</t>
+  </si>
+  <si>
+    <t>No.8</t>
+  </si>
+  <si>
+    <t>No.9</t>
+  </si>
+  <si>
+    <t>Japanese</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社会</t>
-    <rPh sb="0" eb="2">
-      <t>シャカイ</t>
-    </rPh>
+    <t>Math</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>英語</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
+    <t>Science</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優文</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ブン</t>
-    </rPh>
+    <t>Society</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優バ</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>優理</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>リ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並文</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並バ</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並理</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>リ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>劣文</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>劣バ</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>劣理</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>リ</t>
-    </rPh>
+    <t>English</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,31 +449,31 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -560,7 +493,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>90</v>
@@ -575,12 +508,12 @@
         <v>90</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -600,7 +533,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>70</v>
@@ -620,7 +553,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -635,12 +568,12 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -660,7 +593,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -680,7 +613,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -700,7 +633,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>20</v>
